--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>515726.662165859</v>
+        <v>565488.6672442007</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.869226758</v>
+        <v>8547013.05951393</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8722880.896883905</v>
+        <v>8506890.903312845</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D2" t="n">
-        <v>165.1725371760946</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
     </row>
     <row r="3">
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
+        <v>187.5255871663199</v>
+      </c>
+      <c r="U3" t="n">
+        <v>187.5255871663199</v>
+      </c>
+      <c r="V3" t="n">
+        <v>187.5255871663199</v>
+      </c>
+      <c r="W3" t="n">
         <v>165.1725371760946</v>
       </c>
-      <c r="U3" t="n">
-        <v>187.52558716632</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6.396723986041591</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>15.4022924851448</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U6" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V6" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W6" t="n">
-        <v>179.4234713632119</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>52.21594625443466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V8" t="n">
-        <v>78.2065198965162</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>88.09081815943081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>146.0853768459239</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>54.88230539683209</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>31.75612696673529</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>281.8418017252669</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>362.5620476897415</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U12" t="n">
         <v>225.7871683969286</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>93.35882079148004</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>149.9901675479393</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>224.6386286764487</v>
+        <v>361.5173193517792</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1669,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1739,7 +1739,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U15" t="n">
         <v>225.7871683969286</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>163.562265857203</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>125.8964770521859</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>46.42208820247036</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>81.77200357366338</v>
       </c>
       <c r="T19" t="n">
-        <v>83.32727861849563</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>169.6506434813494</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>131.0573912450696</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>114.0495374903441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>307.9539566595024</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,7 +2335,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>49.87303154284936</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>199.5961109774292</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>156.5501852119334</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>150.4026958753531</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>166.2198619158004</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>177.6639791994885</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>236.1496593854058</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>19.78589926923129</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>107.0704956909093</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>146.5990350281144</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>335.0722034142582</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>25.42907173311878</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>220.240380605689</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>232.8841539405103</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>12.40418031676373</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>154.5952003645345</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>58.92805047992106</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>171.059848124204</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>20.95866062610959</v>
+        <v>11.62289981020967</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>44.76325132289552</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>59.42500558273882</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>80.13525272600678</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>105.5231001621532</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>19.84006383513505</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>17.35112070699533</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>15.62664829320071</v>
       </c>
       <c r="E46" t="n">
-        <v>127.6752559270057</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4194,10 +4194,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.1023486652798</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="C2" t="n">
-        <v>750.1023486652798</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="D2" t="n">
-        <v>583.26140202276</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062752</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897904</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678498</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058947</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652798</v>
+        <v>583.26140202276</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L3" t="n">
         <v>183.5548280772649</v>
@@ -4424,37 +4424,37 @@
         <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T3" t="n">
-        <v>583.26140202276</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="U3" t="n">
-        <v>393.8416170062752</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="V3" t="n">
-        <v>393.8416170062752</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="W3" t="n">
-        <v>393.8416170062752</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4218319897904</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
         <v>27.03967056230176</v>
@@ -4527,13 +4527,13 @@
         <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>210.8831693494285</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="C5" t="n">
-        <v>210.8831693494285</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="D5" t="n">
-        <v>210.8831693494285</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="E5" t="n">
-        <v>210.8831693494285</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="F5" t="n">
-        <v>210.8831693494285</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G5" t="n">
-        <v>21.46338433294358</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>21.46338433294358</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N5" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S5" t="n">
-        <v>589.7227393823983</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T5" t="n">
-        <v>589.7227393823983</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U5" t="n">
-        <v>589.7227393823983</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V5" t="n">
-        <v>589.7227393823983</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W5" t="n">
-        <v>589.7227393823983</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X5" t="n">
-        <v>589.7227393823983</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="Y5" t="n">
-        <v>400.3029543659134</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116.8624079336487</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="C6" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D6" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E6" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F6" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G6" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476353</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017067</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R6" t="n">
-        <v>676.9378076264286</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S6" t="n">
-        <v>676.9378076264286</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="T6" t="n">
-        <v>676.9378076264286</v>
+        <v>409.399488203391</v>
       </c>
       <c r="U6" t="n">
-        <v>487.5180226099437</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="V6" t="n">
-        <v>298.0982375934587</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="W6" t="n">
-        <v>116.8624079336487</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="X6" t="n">
-        <v>116.8624079336487</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="Y6" t="n">
-        <v>116.8624079336487</v>
+        <v>30.55991817042155</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>454.3551013277006</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="C8" t="n">
-        <v>454.3551013277006</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="D8" t="n">
-        <v>454.3551013277006</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="E8" t="n">
-        <v>454.3551013277006</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="F8" t="n">
-        <v>43.36919653809306</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>672.2420264262254</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>672.2420264262254</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>672.2420264262254</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642784</v>
+        <v>482.8222414097406</v>
       </c>
       <c r="V8" t="n">
-        <v>1957.328686898828</v>
+        <v>482.8222414097406</v>
       </c>
       <c r="W8" t="n">
-        <v>1604.560031628714</v>
+        <v>482.8222414097406</v>
       </c>
       <c r="X8" t="n">
-        <v>1231.094273367634</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="Y8" t="n">
-        <v>840.9549413918223</v>
+        <v>393.8416170062752</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>432.9201081554293</v>
+        <v>694.6656765472675</v>
       </c>
       <c r="C9" t="n">
-        <v>432.9201081554293</v>
+        <v>520.2126472661405</v>
       </c>
       <c r="D9" t="n">
-        <v>432.9201081554293</v>
+        <v>371.2782376048892</v>
       </c>
       <c r="E9" t="n">
-        <v>285.3591214423749</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="F9" t="n">
-        <v>138.8245634692599</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S9" t="n">
-        <v>1734.238298972664</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T9" t="n">
-        <v>1734.238298972664</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U9" t="n">
-        <v>1506.136709105928</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V9" t="n">
-        <v>1270.984600874186</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W9" t="n">
-        <v>1016.747244145984</v>
+        <v>694.6656765472675</v>
       </c>
       <c r="X9" t="n">
-        <v>808.8957439404512</v>
+        <v>694.6656765472675</v>
       </c>
       <c r="Y9" t="n">
-        <v>601.1354451754974</v>
+        <v>694.6656765472675</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2124511146038</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>488.2124511146038</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>340.2993575322107</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>193.4094100343004</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>193.4094100343004</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1619.798686923957</v>
+        <v>1659.057359339775</v>
       </c>
       <c r="C11" t="n">
-        <v>1250.836169983545</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D11" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066532</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796417</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X11" t="n">
-        <v>1904.487375535337</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="Y11" t="n">
-        <v>1904.487375535337</v>
+        <v>2045.657199403896</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5226,25 +5226,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S13" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T13" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U13" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V13" t="n">
-        <v>355.929286469144</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W13" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X13" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1792.126722677732</v>
+        <v>1590.807527238423</v>
       </c>
       <c r="C14" t="n">
-        <v>1792.126722677732</v>
+        <v>1590.807527238423</v>
       </c>
       <c r="D14" t="n">
-        <v>1433.861024070982</v>
+        <v>1232.541828631673</v>
       </c>
       <c r="E14" t="n">
-        <v>1048.072771472737</v>
+        <v>846.7535760334285</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
@@ -5308,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923658</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W14" t="n">
-        <v>2182.266054653544</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X14" t="n">
-        <v>2182.266054653544</v>
+        <v>2367.546699278357</v>
       </c>
       <c r="Y14" t="n">
-        <v>1792.126722677732</v>
+        <v>1977.407367302545</v>
       </c>
     </row>
     <row r="15">
@@ -5333,70 +5333,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
         <v>66.51211643218342</v>
@@ -5463,25 +5463,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T16" t="n">
-        <v>899.7166415493873</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U16" t="n">
-        <v>610.6137746750309</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V16" t="n">
-        <v>355.929286469144</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="W16" t="n">
-        <v>66.51211643218342</v>
+        <v>563.9867116882405</v>
       </c>
       <c r="X16" t="n">
-        <v>66.51211643218342</v>
+        <v>563.9867116882405</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.51211643218342</v>
+        <v>563.9867116882405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1405.52688261361</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C17" t="n">
-        <v>1405.52688261361</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5545,22 +5545,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.034709923658</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W17" t="n">
-        <v>2182.266054653544</v>
+        <v>2694.121459355123</v>
       </c>
       <c r="X17" t="n">
-        <v>2182.266054653544</v>
+        <v>2694.121459355123</v>
       </c>
       <c r="Y17" t="n">
-        <v>1792.126722677732</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="18">
@@ -5700,19 +5700,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>729.2011216450112</v>
+        <v>838.2890224104441</v>
       </c>
       <c r="T19" t="n">
-        <v>645.0321533435005</v>
+        <v>838.2890224104441</v>
       </c>
       <c r="U19" t="n">
-        <v>355.929286469144</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V19" t="n">
-        <v>355.929286469144</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W19" t="n">
-        <v>66.51211643218342</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X19" t="n">
         <v>66.51211643218342</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1422.200456328342</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C20" t="n">
-        <v>1422.200456328342</v>
+        <v>942.9472709150261</v>
       </c>
       <c r="D20" t="n">
-        <v>1063.934757721592</v>
+        <v>584.6815723082757</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>198.8933197100314</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G20" t="n">
         <v>66.51211643218342</v>
@@ -5752,7 +5752,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5761,7 +5761,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y20" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="21">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218342</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5940,22 +5940,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V22" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W22" t="n">
-        <v>409.7032203507503</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X22" t="n">
-        <v>181.713669452733</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1561.900772669911</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C23" t="n">
-        <v>1561.900772669911</v>
+        <v>942.9472709150261</v>
       </c>
       <c r="D23" t="n">
-        <v>1203.635074063161</v>
+        <v>942.9472709150261</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>942.9472709150261</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>531.9613661254186</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>116.8889159704151</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218342</v>
@@ -5989,7 +5989,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -5998,7 +5998,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6022,19 +6022,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X23" t="n">
-        <v>1952.040104645723</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y23" t="n">
-        <v>1561.900772669911</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
@@ -6071,49 +6071,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6177,22 +6177,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>848.0708164780106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>848.0708164780106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>848.0708164780106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W25" t="n">
-        <v>848.0708164780106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X25" t="n">
-        <v>848.0708164780106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y25" t="n">
-        <v>848.0708164780106</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1590.514489367197</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C26" t="n">
-        <v>1221.551972426786</v>
+        <v>1365.084818551269</v>
       </c>
       <c r="D26" t="n">
-        <v>863.2862738200351</v>
+        <v>1365.084818551269</v>
       </c>
       <c r="E26" t="n">
-        <v>477.498021221791</v>
+        <v>979.296565953025</v>
       </c>
       <c r="F26" t="n">
-        <v>66.5121164321834</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V26" t="n">
-        <v>2535.034709923658</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W26" t="n">
-        <v>2182.266054653544</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="X26" t="n">
-        <v>2182.266054653544</v>
+        <v>2510.786507531614</v>
       </c>
       <c r="Y26" t="n">
-        <v>1792.126722677732</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="27">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>679.1346335501037</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E28" t="n">
         <v>381.1049005553748</v>
@@ -6408,28 +6408,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>679.1346335501037</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U28" t="n">
-        <v>679.1346335501037</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V28" t="n">
-        <v>679.1346335501037</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="W28" t="n">
-        <v>679.1346335501037</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="X28" t="n">
-        <v>679.1346335501037</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="Y28" t="n">
-        <v>679.1346335501037</v>
+        <v>531.2215399677106</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>2185.045504370169</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>1816.082987429757</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>1457.817288823007</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>1072.029036224763</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>661.0431314351551</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>245.9706812801516</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V29" t="n">
-        <v>2630.721789066531</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W29" t="n">
-        <v>2630.721789066531</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X29" t="n">
-        <v>2392.186779586323</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y29" t="n">
-        <v>2392.186779586323</v>
+        <v>2571.645344434291</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>234.2149530574644</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C31" t="n">
-        <v>234.2149530574644</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>234.2149530574644</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>234.2149530574644</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T31" t="n">
-        <v>812.7349899687815</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U31" t="n">
-        <v>523.6321230944251</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V31" t="n">
-        <v>523.6321230944251</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W31" t="n">
-        <v>234.2149530574644</v>
+        <v>699.120390387711</v>
       </c>
       <c r="X31" t="n">
-        <v>234.2149530574644</v>
+        <v>699.120390387711</v>
       </c>
       <c r="Y31" t="n">
-        <v>234.2149530574644</v>
+        <v>699.120390387711</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1619.798686923957</v>
+        <v>1179.430764345701</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.836169983545</v>
+        <v>1179.430764345701</v>
       </c>
       <c r="D32" t="n">
-        <v>892.5704713767946</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6733,19 +6733,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3067.235319774533</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>2736.172432430963</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>2383.403777160848</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X32" t="n">
-        <v>2009.938018899768</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y32" t="n">
-        <v>1619.798686923957</v>
+        <v>1566.030604409823</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>384.3315924698002</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="C34" t="n">
-        <v>384.3315924698002</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D34" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E34" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
         <v>66.5121164321834</v>
@@ -6888,22 +6888,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>410.0175235133545</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V34" t="n">
-        <v>384.3315924698002</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W34" t="n">
-        <v>384.3315924698002</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X34" t="n">
-        <v>384.3315924698002</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y34" t="n">
-        <v>384.3315924698002</v>
+        <v>87.68248070098099</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1292.833068744076</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C35" t="n">
-        <v>1292.833068744076</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D35" t="n">
-        <v>934.5673701373257</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G35" t="n">
         <v>108.5090151927147</v>
@@ -6934,31 +6934,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2774.10088638866</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V35" t="n">
-        <v>2443.037999045089</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W35" t="n">
-        <v>2443.037999045089</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X35" t="n">
-        <v>2069.572240784009</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y35" t="n">
-        <v>1679.432908808198</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>692.8974549201677</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C37" t="n">
-        <v>523.9612719922608</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D37" t="n">
-        <v>373.844632579925</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E37" t="n">
-        <v>225.9315389975319</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>79.04159149962155</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K37" t="n">
         <v>176.6457242372933</v>
@@ -7104,43 +7104,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U37" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V37" t="n">
-        <v>920.887005818185</v>
+        <v>542.9636223427266</v>
       </c>
       <c r="W37" t="n">
-        <v>920.887005818185</v>
+        <v>542.9636223427266</v>
       </c>
       <c r="X37" t="n">
-        <v>692.8974549201677</v>
+        <v>542.9636223427266</v>
       </c>
       <c r="Y37" t="n">
-        <v>692.8974549201677</v>
+        <v>542.9636223427266</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2303.170539913434</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C38" t="n">
-        <v>1934.208022973022</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D38" t="n">
-        <v>1575.942324366272</v>
+        <v>1337.88200728809</v>
       </c>
       <c r="E38" t="n">
-        <v>1190.154071768027</v>
+        <v>952.093754689846</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>541.1078499002385</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>126.035399745235</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7177,7 +7177,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
@@ -7186,7 +7186,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W38" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X38" t="n">
-        <v>2693.309871889246</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y38" t="n">
-        <v>2303.170539913434</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="39">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.68248070098099</v>
+        <v>228.3690586831148</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218342</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D40" t="n">
         <v>66.51211643218342</v>
@@ -7362,22 +7362,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U40" t="n">
-        <v>631.7841389438285</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V40" t="n">
-        <v>377.0996507379416</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W40" t="n">
-        <v>87.68248070098099</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="X40" t="n">
-        <v>87.68248070098099</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.68248070098099</v>
+        <v>410.0175235133545</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1930.094988518961</v>
+        <v>1990.120246683345</v>
       </c>
       <c r="C41" t="n">
-        <v>1561.13247157855</v>
+        <v>1621.157729742934</v>
       </c>
       <c r="D41" t="n">
-        <v>1202.866772971799</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E41" t="n">
-        <v>817.078520373555</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.0926155839475</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
@@ -7426,37 +7426,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V41" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W41" t="n">
-        <v>2766.859418723277</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X41" t="n">
-        <v>2706.834160558895</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="Y41" t="n">
-        <v>2316.694828583083</v>
+        <v>2376.720086747467</v>
       </c>
     </row>
     <row r="42">
@@ -7466,64 +7466,64 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G42" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>609.2899331452389</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C43" t="n">
-        <v>528.3452334219998</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D43" t="n">
-        <v>528.3452334219998</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E43" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>78.33486996962284</v>
@@ -7575,46 +7575,46 @@
         <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T43" t="n">
-        <v>609.2899331452389</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U43" t="n">
-        <v>609.2899331452389</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V43" t="n">
-        <v>609.2899331452389</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="W43" t="n">
-        <v>609.2899331452389</v>
+        <v>592.5314003249296</v>
       </c>
       <c r="X43" t="n">
-        <v>609.2899331452389</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="Y43" t="n">
-        <v>609.2899331452389</v>
+        <v>364.5418494269122</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1681.836054204826</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C44" t="n">
-        <v>1312.873537264415</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>954.6078386576642</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
         <v>934.5673701373257</v>
@@ -7645,10 +7645,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810555</v>
@@ -7657,43 +7657,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794323</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450752</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X44" t="n">
-        <v>2071.975386180638</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y44" t="n">
-        <v>1681.836054204826</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>342.3669689068672</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="C46" t="n">
-        <v>342.3669689068672</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="D46" t="n">
-        <v>342.3669689068672</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962279</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068849</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U46" t="n">
-        <v>631.7841389438278</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V46" t="n">
-        <v>631.7841389438278</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="W46" t="n">
-        <v>342.3669689068672</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="X46" t="n">
-        <v>342.3669689068672</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="Y46" t="n">
-        <v>342.3669689068672</v>
+        <v>377.0996507379422</v>
       </c>
     </row>
   </sheetData>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046876</v>
       </c>
       <c r="D2" t="n">
-        <v>189.5105044445883</v>
+        <v>167.157454454363</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637381</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>221.0654014799591</v>
       </c>
     </row>
     <row r="3">
@@ -22679,22 +22679,22 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>30.23706061590661</v>
+        <v>7.884010625681327</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377098</v>
+        <v>38.338181243771</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310535</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>86.522445984825</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098441</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.2082544971605</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>241.703508565617</v>
       </c>
       <c r="G5" t="n">
-        <v>225.572246063738</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>119.0745931339331</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666373</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7123514897335</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="6">
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>157.3062065031709</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22880,13 +22880,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U6" t="n">
-        <v>38.33818124377086</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V6" t="n">
-        <v>45.2749999831052</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W6" t="n">
-        <v>72.27151179770772</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22965,10 +22965,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -23004,13 +23004,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821566</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>166.3687070976601</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>63.6436733987104</v>
       </c>
       <c r="V8" t="n">
-        <v>249.5457385736187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>281.6402825190382</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>11.55970360947705</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>196.8126777640875</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23181,31 +23181,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>135.4906941318926</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>234.0491352390159</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.8920399382137</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.710844081266089</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>86.47315939045725</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23466,19 +23466,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>102.1474757758887</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>182.2374170652628</v>
+        <v>45.35872638993226</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23703,19 +23703,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>198.5902886500596</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>122.960732479388</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>228.7865645684971</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23785,7 +23785,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>302.8188805149426</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23940,22 +23940,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>107.9970217577785</v>
       </c>
       <c r="T19" t="n">
-        <v>136.2216706576736</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>212.2797265909124</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>275.8186544966419</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24180,7 +24180,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>104.5351158617507</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>73.97641341275943</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>244.7347328444711</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>147.4609218293966</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>183.1377306860514</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>250.3258605297781</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>69.14625340081608</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>85.91778140802765</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>116.943785187832</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>133.5814412930632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>160.046080912706</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>112.4784535852599</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>104.3961369307875</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>51.1657352417954</v>
       </c>
     </row>
     <row r="33">
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>146.2881604725182</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25128,16 +25128,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>226.7085715907092</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,16 +25159,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>134.442661014994</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25207,16 +25207,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>18.11101801839172</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>153.6216279422645</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,19 +25365,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>97.54244295929351</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>235.6797139073994</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>198.671252554265</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>146.2881604725182</v>
+        <v>155.6239212884182</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25602,16 +25602,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>309.9197902977874</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>310.3060950957302</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>87.11156837262105</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25848,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>180.9998981744378</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>362.0903062371268</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>233.6440512519067</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>132.9888247250117</v>
       </c>
       <c r="E46" t="n">
-        <v>18.75870671956349</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061951</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061954</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>658545.8706526518</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903113</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>158307.6623238765</v>
       </c>
       <c r="C2" t="n">
-        <v>158307.6623238766</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="D2" t="n">
-        <v>245340.6184784387</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="E2" t="n">
         <v>312588.9285003119</v>
       </c>
       <c r="F2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="G2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="H2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="I2" t="n">
         <v>312588.9285003118</v>
@@ -26340,22 +26340,22 @@
         <v>312588.9285003117</v>
       </c>
       <c r="K2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="L2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="M2" t="n">
-        <v>312588.928500312</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="N2" t="n">
+        <v>312588.9285003118</v>
+      </c>
+      <c r="O2" t="n">
         <v>312588.9285003117</v>
       </c>
-      <c r="O2" t="n">
-        <v>312588.9285003116</v>
-      </c>
       <c r="P2" t="n">
-        <v>312588.9285003116</v>
+        <v>312588.9285003119</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.5249487658</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.74576691</v>
+        <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127026</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608628</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,10 +26420,10 @@
         <v>137.800118072334</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723342</v>
+        <v>137.800118072334</v>
       </c>
       <c r="D4" t="n">
-        <v>384.3219252469136</v>
+        <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061231</v>
@@ -26453,13 +26453,13 @@
         <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="O4" t="n">
+        <v>584.646989006123</v>
+      </c>
+      <c r="P4" t="n">
         <v>584.6469890061232</v>
-      </c>
-      <c r="O4" t="n">
-        <v>584.6469890061231</v>
-      </c>
-      <c r="P4" t="n">
-        <v>584.6469890061228</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26496,7 +26496,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
@@ -26508,10 +26508,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139331</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-502366.9027456894</v>
+        <v>-491392.2469285582</v>
       </c>
       <c r="C6" t="n">
-        <v>88989.99977515584</v>
+        <v>99964.65559228715</v>
       </c>
       <c r="D6" t="n">
-        <v>-219414.6903676092</v>
+        <v>99964.65559228715</v>
       </c>
       <c r="E6" t="n">
-        <v>-42406.8001951672</v>
+        <v>-389844.1022215721</v>
       </c>
       <c r="F6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120955</v>
       </c>
       <c r="G6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="H6" t="n">
-        <v>233623.9455717426</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="I6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="J6" t="n">
-        <v>184559.0008431981</v>
+        <v>188225.5966835507</v>
       </c>
       <c r="K6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120955</v>
       </c>
       <c r="L6" t="n">
-        <v>143880.5674404725</v>
+        <v>237290.5414120953</v>
       </c>
       <c r="M6" t="n">
-        <v>161532.5929556567</v>
+        <v>76834.09954421804</v>
       </c>
       <c r="N6" t="n">
-        <v>233623.9455717426</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="O6" t="n">
-        <v>233623.9455717426</v>
+        <v>237290.5414120955</v>
       </c>
       <c r="P6" t="n">
-        <v>233623.9455717429</v>
+        <v>237290.5414120952</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247793</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598431</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761296</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598431</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761299</v>
+        <v>643.875868235973</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598431</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761296</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31281,46 +31281,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,13 +31357,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
         <v>111.4584056340083</v>
@@ -31372,34 +31372,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
         <v>114.9089482765069</v>
@@ -31460,25 +31460,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32022,7 +32022,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
         <v>99.83230779806951</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32563,7 +32563,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33991,10 +33991,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970243</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855698</v>
       </c>
       <c r="Q3" t="n">
         <v>10.60944440764996</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525799</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966696</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
